--- a/data/Informations joueurs.xlsx
+++ b/data/Informations joueurs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2884D73-321C-1D49-B7CB-EA90A7854BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46267396-876B-1F4E-9C95-A1C7A1340304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12440" yWindow="500" windowWidth="15980" windowHeight="16380" xr2:uid="{88726A7A-4B88-8C42-AD00-6D2620F5EC74}"/>
+    <workbookView xWindow="18420" yWindow="500" windowWidth="10000" windowHeight="16380" xr2:uid="{88726A7A-4B88-8C42-AD00-6D2620F5EC74}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Date de naissance</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Sofiane Belle</t>
   </si>
   <si>
-    <t>Nouredine Messalti</t>
-  </si>
-  <si>
     <t>DC</t>
   </si>
   <si>
@@ -135,6 +132,24 @@
   </si>
   <si>
     <t>BU</t>
+  </si>
+  <si>
+    <t>Amir</t>
+  </si>
+  <si>
+    <t>Naim Dhib</t>
+  </si>
+  <si>
+    <t>Wael Fareh</t>
+  </si>
+  <si>
+    <t>Yoan Zouma</t>
+  </si>
+  <si>
+    <t>Ilyes Bougahnmi</t>
+  </si>
+  <si>
+    <t>Oumar</t>
   </si>
 </sst>
 </file>
@@ -170,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -179,11 +194,85 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -516,7 +605,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,7 +631,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2">
@@ -594,7 +683,7 @@
         <v>36731</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -608,7 +697,7 @@
         <v>38816</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -622,7 +711,7 @@
         <v>37120</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -636,7 +725,7 @@
         <v>38254</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -650,7 +739,7 @@
         <v>38335</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -664,7 +753,7 @@
         <v>37279</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -678,7 +767,7 @@
         <v>37812</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -692,7 +781,7 @@
         <v>37486</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -706,7 +795,7 @@
         <v>35873</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -720,7 +809,7 @@
         <v>38501</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -734,7 +823,7 @@
         <v>36814</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -748,7 +837,7 @@
         <v>37182</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -762,7 +851,7 @@
         <v>37547</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -776,7 +865,7 @@
         <v>37632</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -790,7 +879,7 @@
         <v>38354</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -804,36 +893,43 @@
         <v>36886</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21">
-        <v>23</v>
-      </c>
-      <c r="C21" s="3">
-        <v>37383</v>
-      </c>
-      <c r="D21" t="s">
         <v>32</v>
       </c>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -849,6 +945,29 @@
       <c r="C30" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A21:A26">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Informations joueurs.xlsx
+++ b/data/Informations joueurs.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46267396-876B-1F4E-9C95-A1C7A1340304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3243FE-8B43-0F43-9193-A19FCCB22AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18420" yWindow="500" windowWidth="10000" windowHeight="16380" xr2:uid="{88726A7A-4B88-8C42-AD00-6D2620F5EC74}"/>
+    <workbookView xWindow="18440" yWindow="500" windowWidth="10360" windowHeight="16380" xr2:uid="{88726A7A-4B88-8C42-AD00-6D2620F5EC74}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Date de naissance</t>
   </si>
@@ -134,9 +134,6 @@
     <t>BU</t>
   </si>
   <si>
-    <t>Amir</t>
-  </si>
-  <si>
     <t>Naim Dhib</t>
   </si>
   <si>
@@ -149,20 +146,56 @@
     <t>Ilyes Bougahnmi</t>
   </si>
   <si>
-    <t>Oumar</t>
+    <t>Amir Kherrab</t>
+  </si>
+  <si>
+    <t>1m82</t>
+  </si>
+  <si>
+    <t>1m70</t>
+  </si>
+  <si>
+    <t>1m84</t>
+  </si>
+  <si>
+    <t>1m78</t>
+  </si>
+  <si>
+    <t>1m83</t>
+  </si>
+  <si>
+    <t>1m77</t>
+  </si>
+  <si>
+    <t>Yoann Martelat</t>
+  </si>
+  <si>
+    <t>Omar Benyounes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -199,6 +232,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,7 +647,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -755,6 +797,9 @@
       <c r="D10" t="s">
         <v>27</v>
       </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -811,6 +856,9 @@
       <c r="D14" t="s">
         <v>28</v>
       </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
@@ -825,6 +873,9 @@
       <c r="D15" t="s">
         <v>29</v>
       </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -840,7 +891,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -854,7 +905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -867,8 +918,11 @@
       <c r="D18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -882,7 +936,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -896,56 +950,121 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3">
+        <v>38447</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="B22">
+        <v>27</v>
+      </c>
+      <c r="C22" s="7">
+        <v>35850</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3">
+        <v>38918</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="B24">
+        <v>27</v>
+      </c>
+      <c r="C24" s="8">
+        <v>35921</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="C25" s="3">
+        <v>38223</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3">
+        <v>36675</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27">
+        <v>28</v>
+      </c>
+      <c r="C27" s="7">
+        <v>35446</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C30" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A21:A26">
+  <conditionalFormatting sqref="A22:A27">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>

--- a/data/Informations joueurs.xlsx
+++ b/data/Informations joueurs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3243FE-8B43-0F43-9193-A19FCCB22AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01273FE5-E8B1-9B49-B9F9-B01A96926F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18440" yWindow="500" windowWidth="10360" windowHeight="16380" xr2:uid="{88726A7A-4B88-8C42-AD00-6D2620F5EC74}"/>
+    <workbookView xWindow="80" yWindow="540" windowWidth="10360" windowHeight="16380" xr2:uid="{88726A7A-4B88-8C42-AD00-6D2620F5EC74}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>Date de naissance</t>
   </si>
@@ -171,6 +171,36 @@
   </si>
   <si>
     <t>Omar Benyounes</t>
+  </si>
+  <si>
+    <t>1m80</t>
+  </si>
+  <si>
+    <t>1m87</t>
+  </si>
+  <si>
+    <t>1m81</t>
+  </si>
+  <si>
+    <t>1m91</t>
+  </si>
+  <si>
+    <t>1m89</t>
+  </si>
+  <si>
+    <t>1m72</t>
+  </si>
+  <si>
+    <t>1m93</t>
+  </si>
+  <si>
+    <t>1m74</t>
+  </si>
+  <si>
+    <t>1m69</t>
+  </si>
+  <si>
+    <t>1m85</t>
   </si>
 </sst>
 </file>
@@ -218,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -226,9 +256,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -647,7 +674,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,7 +700,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
@@ -684,6 +711,9 @@
       </c>
       <c r="D2" t="s">
         <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -699,6 +729,9 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -713,6 +746,9 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -727,6 +763,9 @@
       <c r="D5" t="s">
         <v>25</v>
       </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -755,6 +794,9 @@
       <c r="D7" t="s">
         <v>25</v>
       </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -814,6 +856,9 @@
       <c r="D11" t="s">
         <v>27</v>
       </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -828,6 +873,9 @@
       <c r="D12" t="s">
         <v>28</v>
       </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
@@ -842,6 +890,9 @@
       <c r="D13" t="s">
         <v>28</v>
       </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -890,6 +941,9 @@
       <c r="D16" t="s">
         <v>29</v>
       </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
@@ -904,6 +958,9 @@
       <c r="D17" t="s">
         <v>29</v>
       </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
@@ -951,7 +1008,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B21">
@@ -968,17 +1025,20 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B22">
         <v>27</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>35850</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1002,7 +1062,7 @@
       <c r="B24">
         <v>27</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>35921</v>
       </c>
       <c r="D24" t="s">
@@ -1022,6 +1082,9 @@
       <c r="D25" t="s">
         <v>31</v>
       </c>
+      <c r="E25" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
@@ -1044,7 +1107,7 @@
       <c r="B27">
         <v>28</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>35446</v>
       </c>
       <c r="D27" t="s">

--- a/data/Informations joueurs.xlsx
+++ b/data/Informations joueurs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01273FE5-E8B1-9B49-B9F9-B01A96926F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C75374-CCE8-F445-BE7F-B4047D306BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="540" windowWidth="10360" windowHeight="16380" xr2:uid="{88726A7A-4B88-8C42-AD00-6D2620F5EC74}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="10360" windowHeight="16380" xr2:uid="{88726A7A-4B88-8C42-AD00-6D2620F5EC74}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -143,9 +143,6 @@
     <t>Yoan Zouma</t>
   </si>
   <si>
-    <t>Ilyes Bougahnmi</t>
-  </si>
-  <si>
     <t>Amir Kherrab</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>1m85</t>
+  </si>
+  <si>
+    <t>Ilyes Boughanmi</t>
   </si>
 </sst>
 </file>
@@ -674,7 +674,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -713,7 +713,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -730,7 +730,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -747,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -764,7 +764,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -795,7 +795,7 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -840,7 +840,7 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -857,7 +857,7 @@
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -874,7 +874,7 @@
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -891,7 +891,7 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -908,7 +908,7 @@
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -925,7 +925,7 @@
         <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -942,7 +942,7 @@
         <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -959,7 +959,7 @@
         <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -976,7 +976,7 @@
         <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1009,7 +1009,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -1021,7 +1021,7 @@
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1038,7 +1038,7 @@
         <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1071,7 +1071,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B25">
         <v>21</v>
@@ -1083,12 +1083,12 @@
         <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27">
         <v>28</v>
@@ -1114,7 +1114,7 @@
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">

--- a/data/Informations joueurs.xlsx
+++ b/data/Informations joueurs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C75374-CCE8-F445-BE7F-B4047D306BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27FBBAF-F114-AA4F-AF9C-B53E98BD7C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="10360" windowHeight="16380" xr2:uid="{88726A7A-4B88-8C42-AD00-6D2620F5EC74}"/>
+    <workbookView xWindow="20240" yWindow="540" windowWidth="10360" windowHeight="16380" xr2:uid="{88726A7A-4B88-8C42-AD00-6D2620F5EC74}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>Date de naissance</t>
   </si>
@@ -674,7 +674,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -992,6 +992,9 @@
       <c r="D19" t="s">
         <v>30</v>
       </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -1068,6 +1071,9 @@
       <c r="D24" t="s">
         <v>25</v>
       </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
@@ -1098,6 +1104,9 @@
       </c>
       <c r="D26" t="s">
         <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">

--- a/data/Informations joueurs.xlsx
+++ b/data/Informations joueurs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27FBBAF-F114-AA4F-AF9C-B53E98BD7C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D592F2BA-325F-D642-B1E6-934108C16F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20240" yWindow="540" windowWidth="10360" windowHeight="16380" xr2:uid="{88726A7A-4B88-8C42-AD00-6D2620F5EC74}"/>
+    <workbookView xWindow="18440" yWindow="500" windowWidth="10360" windowHeight="16380" xr2:uid="{88726A7A-4B88-8C42-AD00-6D2620F5EC74}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>Date de naissance</t>
   </si>
@@ -674,7 +674,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -780,6 +780,9 @@
       <c r="D6" t="s">
         <v>25</v>
       </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1056,6 +1059,9 @@
       </c>
       <c r="D23" t="s">
         <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">

--- a/data/Informations joueurs.xlsx
+++ b/data/Informations joueurs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D592F2BA-325F-D642-B1E6-934108C16F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A04B7F-EE15-5A4D-A836-22963D620CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18440" yWindow="500" windowWidth="10360" windowHeight="16380" xr2:uid="{88726A7A-4B88-8C42-AD00-6D2620F5EC74}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>Date de naissance</t>
   </si>
@@ -674,7 +674,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1012,6 +1012,9 @@
       <c r="D20" t="s">
         <v>31</v>
       </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
@@ -1038,7 +1041,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="6">
-        <v>35850</v>
+        <v>35854</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>

--- a/data/Informations joueurs.xlsx
+++ b/data/Informations joueurs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A04B7F-EE15-5A4D-A836-22963D620CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77ADC10-CD3D-BA4A-A9BB-9C9795701E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18440" yWindow="500" windowWidth="10360" windowHeight="16380" xr2:uid="{88726A7A-4B88-8C42-AD00-6D2620F5EC74}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>Date de naissance</t>
   </si>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC62179-91BA-B241-B8B8-EFBF1E6AE721}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -814,6 +814,9 @@
       <c r="D8" t="s">
         <v>26</v>
       </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -827,6 +830,9 @@
       </c>
       <c r="D9" t="s">
         <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">

--- a/data/Informations joueurs.xlsx
+++ b/data/Informations joueurs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77ADC10-CD3D-BA4A-A9BB-9C9795701E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF177FC-168A-4F41-9446-8FC248A38F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18440" yWindow="500" windowWidth="10360" windowHeight="16380" xr2:uid="{88726A7A-4B88-8C42-AD00-6D2620F5EC74}"/>
+    <workbookView xWindow="18440" yWindow="500" windowWidth="10360" windowHeight="16360" xr2:uid="{88726A7A-4B88-8C42-AD00-6D2620F5EC74}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
   <si>
     <t>Date de naissance</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>Ilyes Boughanmi</t>
+  </si>
+  <si>
+    <t>Kamal Bafounta</t>
+  </si>
+  <si>
+    <t>Malik Boussaïd</t>
   </si>
 </sst>
 </file>
@@ -674,7 +680,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1142,16 +1148,38 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
+      <c r="A28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1">
+        <v>37264</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1">
+        <v>35311</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C30" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A22:A27">
+  <conditionalFormatting sqref="A22:A29">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>

--- a/data/Informations joueurs.xlsx
+++ b/data/Informations joueurs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF177FC-168A-4F41-9446-8FC248A38F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DF43A7-0847-8044-8D25-0AD0865FCBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18440" yWindow="500" windowWidth="10360" windowHeight="16360" xr2:uid="{88726A7A-4B88-8C42-AD00-6D2620F5EC74}"/>
   </bookViews>
@@ -206,7 +206,7 @@
     <t>Kamal Bafounta</t>
   </si>
   <si>
-    <t>Malik Boussaïd</t>
+    <t>Malik Boussaid</t>
   </si>
 </sst>
 </file>
@@ -680,7 +680,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/Informations joueurs.xlsx
+++ b/data/Informations joueurs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DF43A7-0847-8044-8D25-0AD0865FCBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61252AA3-2A8B-1A4F-B9D6-C993BE41A79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18440" yWindow="500" windowWidth="10360" windowHeight="16360" xr2:uid="{88726A7A-4B88-8C42-AD00-6D2620F5EC74}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t>Date de naissance</t>
   </si>
@@ -680,7 +680,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1160,6 +1160,9 @@
       <c r="D28" t="s">
         <v>28</v>
       </c>
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
@@ -1173,6 +1176,9 @@
       </c>
       <c r="D29" t="s">
         <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">

--- a/data/Informations joueurs.xlsx
+++ b/data/Informations joueurs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61252AA3-2A8B-1A4F-B9D6-C993BE41A79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F00F4A-8AA8-9643-86B8-A415AB257836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18440" yWindow="500" windowWidth="10360" windowHeight="16360" xr2:uid="{88726A7A-4B88-8C42-AD00-6D2620F5EC74}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
   <si>
     <t>Date de naissance</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Malik Boussaid</t>
+  </si>
+  <si>
+    <t>Theo Owono</t>
   </si>
 </sst>
 </file>
@@ -680,7 +683,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1182,10 +1185,24 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
+      <c r="A30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1">
+        <v>37529</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A22:A29">
+  <conditionalFormatting sqref="A22:A30">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>

--- a/data/Informations joueurs.xlsx
+++ b/data/Informations joueurs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F00F4A-8AA8-9643-86B8-A415AB257836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F203D2B-B044-5549-8E89-28D00FC91078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18440" yWindow="500" windowWidth="10360" windowHeight="16360" xr2:uid="{88726A7A-4B88-8C42-AD00-6D2620F5EC74}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
   <si>
     <t>Date de naissance</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>Theo Owono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehdi Boussaid </t>
   </si>
 </sst>
 </file>
@@ -257,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -277,6 +280,15 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC62179-91BA-B241-B8B8-EFBF1E6AE721}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1199,6 +1211,23 @@
       </c>
       <c r="E30" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="9">
+        <v>30</v>
+      </c>
+      <c r="C31" s="10">
+        <v>35058</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/data/Informations joueurs.xlsx
+++ b/data/Informations joueurs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F203D2B-B044-5549-8E89-28D00FC91078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A253BBD1-F70B-D64C-A8CC-05B3AE8B756C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18440" yWindow="500" windowWidth="10360" windowHeight="16360" xr2:uid="{88726A7A-4B88-8C42-AD00-6D2620F5EC74}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
   <si>
     <t>Date de naissance</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t xml:space="preserve">Mehdi Boussaid </t>
+  </si>
+  <si>
+    <t>Nathanael Beta</t>
   </si>
 </sst>
 </file>
@@ -294,7 +297,74 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -692,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC62179-91BA-B241-B8B8-EFBF1E6AE721}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1230,8 +1300,36 @@
         <v>39</v>
       </c>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A22:A30">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>

--- a/data/Informations joueurs.xlsx
+++ b/data/Informations joueurs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A253BBD1-F70B-D64C-A8CC-05B3AE8B756C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18B1FE8-F835-3B4E-8C58-A76196E3200B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18440" yWindow="500" windowWidth="10360" windowHeight="16360" xr2:uid="{88726A7A-4B88-8C42-AD00-6D2620F5EC74}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t>Date de naissance</t>
   </si>
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC62179-91BA-B241-B8B8-EFBF1E6AE721}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1303,6 +1303,15 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>59</v>
+      </c>
+      <c r="B32">
+        <v>19</v>
+      </c>
+      <c r="C32" s="1">
+        <v>38936</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
